--- a/Lab_3/Segway_files/Outputs/output5.xlsx
+++ b/Lab_3/Segway_files/Outputs/output5.xlsx
@@ -409,28 +409,28 @@
     </row>
     <row r="2" spans="2:10">
       <c r="B2">
-        <v>366.4614712928213</v>
+        <v>9909.571858878793</v>
       </c>
       <c r="C2">
-        <v>818.1218932155988</v>
+        <v>14462.86904604189</v>
       </c>
       <c r="D2">
-        <v>0.003111703272757733</v>
+        <v>-0.002752979912103131</v>
       </c>
       <c r="E2">
-        <v>-1.018938947385731</v>
+        <v>-0.9769826350384074</v>
       </c>
       <c r="F2">
-        <v>0.002595191608964808</v>
+        <v>-0.03527018648890718</v>
       </c>
       <c r="G2">
-        <v>616.625</v>
+        <v>10055.87</v>
       </c>
       <c r="H2">
-        <v>799.78</v>
+        <v>14499.885</v>
       </c>
       <c r="I2">
-        <v>-0.00263</v>
+        <v>-0.000585</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -438,376 +438,376 @@
     </row>
     <row r="3" spans="2:10">
       <c r="B3">
-        <v>339.6548810969907</v>
+        <v>9975.077627460851</v>
       </c>
       <c r="C3">
-        <v>834.8084687363278</v>
+        <v>14463.58899951217</v>
       </c>
       <c r="D3">
-        <v>-0.2854334169261997</v>
+        <v>-0.4752644585202042</v>
       </c>
       <c r="E3">
-        <v>-1.0079835898057</v>
+        <v>-0.9948092711679226</v>
       </c>
       <c r="F3">
-        <v>-0.0753685854928476</v>
+        <v>-0.1079800259622752</v>
       </c>
       <c r="G3">
-        <v>632.2499459617499</v>
+        <v>10212.74497315673</v>
       </c>
       <c r="H3">
-        <v>799.7389062973735</v>
+        <v>14499.79322813023</v>
       </c>
       <c r="I3">
-        <v>-0.07207444444444444</v>
+        <v>-0.1189812264150943</v>
       </c>
       <c r="J3">
-        <v>-0.2777777777777778</v>
+        <v>-0.4735849056603774</v>
       </c>
     </row>
     <row r="4" spans="2:10">
       <c r="B4">
-        <v>310.6767911327942</v>
+        <v>10439.39013352179</v>
       </c>
       <c r="C4">
-        <v>824.9735322113164</v>
+        <v>15367.14242208392</v>
       </c>
       <c r="D4">
-        <v>-0.5479658017866321</v>
+        <v>-0.9504994300528791</v>
       </c>
       <c r="E4">
-        <v>-0.9698985706155488</v>
+        <v>-0.9483569197783757</v>
       </c>
       <c r="F4">
-        <v>-0.1879230101673897</v>
+        <v>-0.3438691022493881</v>
       </c>
       <c r="G4">
-        <v>663.4188135060174</v>
+        <v>10524.27678583502</v>
       </c>
       <c r="H4">
-        <v>797.488529438289</v>
+        <v>14462.55088409314</v>
       </c>
       <c r="I4">
-        <v>-0.2109633333333333</v>
+        <v>-0.355773679245283</v>
       </c>
       <c r="J4">
-        <v>-0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="5" spans="2:10">
       <c r="B5">
-        <v>300.4679869303422</v>
+        <v>11246.36261424519</v>
       </c>
       <c r="C5">
-        <v>834.8458616747914</v>
+        <v>17711.2893821308</v>
       </c>
       <c r="D5">
-        <v>-0.7458704917636548</v>
+        <v>-1.262147141598333</v>
       </c>
       <c r="E5">
-        <v>-0.9227337539875307</v>
+        <v>-0.7822234746297635</v>
       </c>
       <c r="F5">
-        <v>-0.3686550672283285</v>
+        <v>-0.6210271274311173</v>
       </c>
       <c r="G5">
-        <v>704.1617357346884</v>
+        <v>10916.41314603052</v>
       </c>
       <c r="H5">
-        <v>788.7634428776222</v>
+        <v>14316.8387439221</v>
       </c>
       <c r="I5">
-        <v>-0.3961480555555556</v>
+        <v>-0.6714961603773586</v>
       </c>
       <c r="J5">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="6" spans="2:10">
       <c r="B6">
-        <v>293.4991794155721</v>
+        <v>15730.98057138978</v>
       </c>
       <c r="C6">
-        <v>937.6486804305665</v>
+        <v>13386.45587214515</v>
       </c>
       <c r="D6">
-        <v>-0.7471841798705227</v>
+        <v>-1.261870242787223</v>
       </c>
       <c r="E6">
-        <v>-0.8307410031373706</v>
+        <v>-0.5524031095890922</v>
       </c>
       <c r="F6">
-        <v>-0.5702529359885522</v>
+        <v>-0.8375920525753361</v>
       </c>
       <c r="G6">
-        <v>742.6015122467314</v>
+        <v>11243.92300190428</v>
       </c>
       <c r="H6">
-        <v>772.6856187422848</v>
+        <v>14056.56917772938</v>
       </c>
       <c r="I6">
-        <v>-0.5813327777777779</v>
+        <v>-0.9872186415094342</v>
       </c>
       <c r="J6">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="7" spans="2:10">
       <c r="B7">
-        <v>342.3144611467195</v>
+        <v>13932.11430845532</v>
       </c>
       <c r="C7">
-        <v>1058.020504804282</v>
+        <v>11955.85680773928</v>
       </c>
       <c r="D7">
-        <v>-0.7423160517092504</v>
+        <v>-1.25778042362744</v>
       </c>
       <c r="E7">
-        <v>-0.7200985244114009</v>
+        <v>-0.2725152888931408</v>
       </c>
       <c r="F7">
-        <v>-0.6635708011764836</v>
+        <v>-0.9606789840313873</v>
       </c>
       <c r="G7">
-        <v>777.423676037138</v>
+        <v>11474.43023187102</v>
       </c>
       <c r="H7">
-        <v>749.8048461116074</v>
+        <v>13707.47124059187</v>
       </c>
       <c r="I7">
-        <v>-0.7665175000000002</v>
+        <v>-1.30294112264151</v>
       </c>
       <c r="J7">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="8" spans="2:10">
       <c r="B8">
-        <v>316.3271371757886</v>
+        <v>13196.41056310765</v>
       </c>
       <c r="C8">
-        <v>976.6169761086387</v>
+        <v>11366.49799121306</v>
       </c>
       <c r="D8">
-        <v>-0.744285780683795</v>
+        <v>-1.259720805098425</v>
       </c>
       <c r="E8">
-        <v>-0.5633442531068024</v>
+        <v>0.04952202300954998</v>
       </c>
       <c r="F8">
-        <v>-0.836334586942489</v>
+        <v>-0.9899052128423383</v>
       </c>
       <c r="G8">
-        <v>807.4374661416459</v>
+        <v>11585.14794884981</v>
       </c>
       <c r="H8">
-        <v>720.9035442242323</v>
+        <v>13304.05515275253</v>
       </c>
       <c r="I8">
-        <v>-0.9517022222222224</v>
+        <v>4.664521703406001</v>
       </c>
       <c r="J8">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="9" spans="2:10">
       <c r="B9">
-        <v>424.2796710538993</v>
+        <v>13948.33320068903</v>
       </c>
       <c r="C9">
-        <v>923.5469038972584</v>
+        <v>12556.21989558427</v>
       </c>
       <c r="D9">
-        <v>-0.7448049127271174</v>
+        <v>-1.266988797978947</v>
       </c>
       <c r="E9">
-        <v>-0.4227866781329246</v>
+        <v>0.3464764211696</v>
       </c>
       <c r="F9">
-        <v>-0.9358316099748415</v>
+        <v>-0.926927379897849</v>
       </c>
       <c r="G9">
-        <v>831.6165462917479</v>
+        <v>11565.13110736411</v>
       </c>
       <c r="H9">
-        <v>686.9700072686245</v>
+        <v>12886.2007775959</v>
       </c>
       <c r="I9">
-        <v>-1.136886944444445</v>
+        <v>4.348799222273925</v>
       </c>
       <c r="J9">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="10" spans="2:10">
       <c r="B10">
-        <v>619.7393254983848</v>
+        <v>16500.98672996834</v>
       </c>
       <c r="C10">
-        <v>935.6386861566076</v>
+        <v>12349.6239187689</v>
       </c>
       <c r="D10">
-        <v>-0.7534699513750746</v>
+        <v>-1.264933611140855</v>
       </c>
       <c r="E10">
-        <v>-0.2487621826756148</v>
+        <v>0.5967753753224462</v>
       </c>
       <c r="F10">
-        <v>-0.9547595655557058</v>
+        <v>-0.7929675931200525</v>
       </c>
       <c r="G10">
-        <v>849.1341009866095</v>
+        <v>11416.35848051669</v>
       </c>
       <c r="H10">
-        <v>649.1646091787328</v>
+        <v>12495.21528134122</v>
       </c>
       <c r="I10">
-        <v>-1.322071666666667</v>
+        <v>4.03307674114185</v>
       </c>
       <c r="J10">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="11" spans="2:10">
       <c r="B11">
-        <v>620.3406974218922</v>
+        <v>13241.50781484013</v>
       </c>
       <c r="C11">
-        <v>861.0089088500677</v>
+        <v>9436.786643679745</v>
       </c>
       <c r="D11">
-        <v>-0.748922219563259</v>
+        <v>-1.264216077436331</v>
       </c>
       <c r="E11">
-        <v>-0.1002058524586408</v>
+        <v>0.8476085635928827</v>
       </c>
       <c r="F11">
-        <v>-1.012688804925956</v>
+        <v>-0.5687297437433456</v>
       </c>
       <c r="G11">
-        <v>859.3911088545112</v>
+        <v>11153.53704756021</v>
       </c>
       <c r="H11">
-        <v>608.780124078382</v>
+        <v>12169.74969612628</v>
       </c>
       <c r="I11">
-        <v>-1.507256388888889</v>
+        <v>3.717354260009774</v>
       </c>
       <c r="J11">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="12" spans="2:10">
       <c r="B12">
-        <v>624.6010382584209</v>
+        <v>11345.79262913556</v>
       </c>
       <c r="C12">
-        <v>877.3253138980782</v>
+        <v>8492.799234686187</v>
       </c>
       <c r="D12">
-        <v>-0.7414548666325405</v>
+        <v>-1.25833769056108</v>
       </c>
       <c r="E12">
-        <v>0.1236484871400308</v>
+        <v>0.9789045206146341</v>
       </c>
       <c r="F12">
-        <v>-1.015815601456324</v>
+        <v>-0.267343207040835</v>
       </c>
       <c r="G12">
-        <v>862.0368264823575</v>
+        <v>10802.64812941068</v>
       </c>
       <c r="H12">
-        <v>567.1975192362564</v>
+        <v>11941.9780563191</v>
       </c>
       <c r="I12">
-        <v>4.590744196068474</v>
+        <v>3.401631778877698</v>
       </c>
       <c r="J12">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="13" spans="2:10">
       <c r="B13">
-        <v>573.0848905422904</v>
+        <v>10595.65349052962</v>
       </c>
       <c r="C13">
-        <v>879.4888459434311</v>
+        <v>8189.17351980293</v>
       </c>
       <c r="D13">
-        <v>-0.5518402814724077</v>
+        <v>-0.9367749663753865</v>
       </c>
       <c r="E13">
-        <v>0.2601222960307938</v>
+        <v>1.021155713046183</v>
       </c>
       <c r="F13">
-        <v>-0.9422191987227106</v>
+        <v>-0.07476501779146431</v>
       </c>
       <c r="G13">
-        <v>858.2447952105983</v>
+        <v>10499.44642981055</v>
       </c>
       <c r="H13">
-        <v>536.1784444783917</v>
+        <v>11861.3071702474</v>
       </c>
       <c r="I13">
-        <v>4.451855307179585</v>
+        <v>3.16483932604751</v>
       </c>
       <c r="J13">
-        <v>-0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="14" spans="2:10">
       <c r="B14">
-        <v>528.7884787046044</v>
+        <v>10402.03000829829</v>
       </c>
       <c r="C14">
-        <v>902.7463474229569</v>
+        <v>7977.157538084787</v>
       </c>
       <c r="D14">
-        <v>-0.2847801415950762</v>
+        <v>-0.4825589432090205</v>
       </c>
       <c r="E14">
-        <v>0.3398755719556968</v>
+        <v>0.9727864410009046</v>
       </c>
       <c r="F14">
-        <v>-0.9649700824775732</v>
+        <v>0.1120306866040498</v>
       </c>
       <c r="G14">
-        <v>854.2198537778561</v>
+        <v>10342.61381613695</v>
       </c>
       <c r="H14">
-        <v>521.0807469233672</v>
+        <v>11857.66067695853</v>
       </c>
       <c r="I14">
-        <v>4.38241086273514</v>
+        <v>3.046443099632415</v>
       </c>
       <c r="J14">
-        <v>-0.2777777777777778</v>
+        <v>-0.4735849056603774</v>
       </c>
     </row>
     <row r="15" spans="2:10">
       <c r="B15">
-        <v>530.342406882514</v>
+        <v>10247.46508788382</v>
       </c>
       <c r="C15">
-        <v>885.0769174580075</v>
+        <v>7701.424107848537</v>
       </c>
       <c r="D15">
-        <v>-0.003528235831933836</v>
+        <v>0.0002604422174387609</v>
       </c>
       <c r="E15">
-        <v>0.2983775007329241</v>
+        <v>1.000809417168253</v>
       </c>
       <c r="F15">
-        <v>-0.9196228911368874</v>
+        <v>0.09715398341864913</v>
       </c>
       <c r="G15">
-        <v>854.2198537778561</v>
+        <v>10342.61381613695</v>
       </c>
       <c r="H15">
-        <v>521.0807469233672</v>
+        <v>11857.66067695853</v>
       </c>
       <c r="I15">
-        <v>4.38241086273514</v>
+        <v>3.046443099632415</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -815,550 +815,550 @@
     </row>
     <row r="16" spans="2:10">
       <c r="B16">
-        <v>550.1345237668144</v>
+        <v>10422.12109344752</v>
       </c>
       <c r="C16">
-        <v>929.4665713821487</v>
+        <v>8460.367233433142</v>
       </c>
       <c r="D16">
-        <v>-0.2769815658393163</v>
+        <v>-0.477654191397392</v>
       </c>
       <c r="E16">
-        <v>0.3649513693462322</v>
+        <v>0.9774671195069846</v>
       </c>
       <c r="F16">
-        <v>-0.8955424610285643</v>
+        <v>0.2054292065621555</v>
       </c>
       <c r="G16">
-        <v>849.1570049233688</v>
+        <v>10186.44840955273</v>
       </c>
       <c r="H16">
-        <v>506.2987245151642</v>
+        <v>11872.56475060922</v>
       </c>
       <c r="I16">
-        <v>4.312966418290696</v>
+        <v>2.928046873217321</v>
       </c>
       <c r="J16">
-        <v>-0.2777777777777778</v>
+        <v>-0.4735849056603774</v>
       </c>
     </row>
     <row r="17" spans="2:10">
       <c r="B17">
-        <v>568.3297260132333</v>
+        <v>10937.22493370464</v>
       </c>
       <c r="C17">
-        <v>982.4389560658744</v>
+        <v>8808.967956309347</v>
       </c>
       <c r="D17">
-        <v>-0.5488553043299469</v>
+        <v>-0.9439113184975758</v>
       </c>
       <c r="E17">
-        <v>0.5456750408657683</v>
+        <v>0.8990322167206716</v>
       </c>
       <c r="F17">
-        <v>-0.8523401621147133</v>
+        <v>0.440318743387082</v>
       </c>
       <c r="G17">
-        <v>837.0043042395012</v>
+        <v>9879.825047820537</v>
       </c>
       <c r="H17">
-        <v>477.508546223109</v>
+        <v>11939.05667899191</v>
       </c>
       <c r="I17">
-        <v>4.174077529401806</v>
+        <v>2.691254420387132</v>
       </c>
       <c r="J17">
-        <v>-0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="18" spans="2:10">
       <c r="B18">
-        <v>615.2344089492701</v>
+        <v>11379.03231297851</v>
       </c>
       <c r="C18">
-        <v>824.3951831024291</v>
+        <v>10978.87913034599</v>
       </c>
       <c r="D18">
-        <v>-0.7420256495645542</v>
+        <v>-1.257206363498129</v>
       </c>
       <c r="E18">
-        <v>0.6913353776030927</v>
+        <v>0.760300729358335</v>
       </c>
       <c r="F18">
-        <v>-0.7562110958975099</v>
+        <v>0.6995086312508246</v>
       </c>
       <c r="G18">
-        <v>815.6423362152341</v>
+        <v>9503.19938834624</v>
       </c>
       <c r="H18">
-        <v>441.7345449183508</v>
+        <v>12121.14474945824</v>
       </c>
       <c r="I18">
-        <v>3.988892807179584</v>
+        <v>2.375531939255056</v>
       </c>
       <c r="J18">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="19" spans="2:10">
       <c r="B19">
-        <v>735.8968266772711</v>
+        <v>8238.0861354156</v>
       </c>
       <c r="C19">
-        <v>728.0095949373962</v>
+        <v>11872.95265532097</v>
       </c>
       <c r="D19">
-        <v>-0.9257697919488483</v>
+        <v>-1.586150558644423</v>
       </c>
       <c r="E19">
-        <v>0.7868992910312702</v>
+        <v>0.4036228271390903</v>
       </c>
       <c r="F19">
-        <v>-0.5987970087876892</v>
+        <v>0.8987469314778179</v>
       </c>
       <c r="G19">
-        <v>781.1627104361377</v>
+        <v>9126.361019651962</v>
       </c>
       <c r="H19">
-        <v>402.6983201123309</v>
+        <v>12483.68366516824</v>
       </c>
       <c r="I19">
-        <v>3.75741086273514</v>
+        <v>1.980877061896566</v>
       </c>
       <c r="J19">
-        <v>-0.9259277777777777</v>
+        <v>-1.578619509433962</v>
       </c>
     </row>
     <row r="20" spans="2:10">
       <c r="B20">
-        <v>764.9471730332859</v>
+        <v>7056.202338772709</v>
       </c>
       <c r="C20">
-        <v>710.2871633922032</v>
+        <v>11165.61295144282</v>
       </c>
       <c r="D20">
-        <v>-1.105510663401499</v>
+        <v>-1.90063866756919</v>
       </c>
       <c r="E20">
-        <v>0.938075852447348</v>
+        <v>-0.05362949086872283</v>
       </c>
       <c r="F20">
-        <v>-0.363080306456054</v>
+        <v>1.020742635375002</v>
       </c>
       <c r="G20">
-        <v>730.1438916353263</v>
+        <v>8876.187204645568</v>
       </c>
       <c r="H20">
-        <v>366.5966563256024</v>
+        <v>13059.15678555281</v>
       </c>
       <c r="I20">
-        <v>3.479633084957362</v>
+        <v>1.507292156236189</v>
       </c>
       <c r="J20">
-        <v>-1.111111111111111</v>
+        <v>-1.894339622641509</v>
       </c>
     </row>
     <row r="21" spans="2:10">
       <c r="B21">
-        <v>670.5007490715553</v>
+        <v>7440.555766936937</v>
       </c>
       <c r="C21">
-        <v>668.932898853948</v>
+        <v>13495.90105555975</v>
       </c>
       <c r="D21">
-        <v>-1.298764018200092</v>
+        <v>-2.208931068930301</v>
       </c>
       <c r="E21">
-        <v>1.035214726203864</v>
+        <v>-0.5673020143948834</v>
       </c>
       <c r="F21">
-        <v>-0.00754366316463867</v>
+        <v>0.7979998275439734</v>
       </c>
       <c r="G21">
-        <v>661.3538259251183</v>
+        <v>8922.646321529905</v>
       </c>
       <c r="H21">
-        <v>342.414634583037</v>
+        <v>13789.76465825723</v>
       </c>
       <c r="I21">
-        <v>3.155559473846251</v>
+        <v>0.9547772222739244</v>
       </c>
       <c r="J21">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="22" spans="2:10">
       <c r="B22">
-        <v>604.1800146729324</v>
+        <v>11680.8658147903</v>
       </c>
       <c r="C22">
-        <v>667.7161247532563</v>
+        <v>15588.85683687964</v>
       </c>
       <c r="D22">
-        <v>-1.296999359299369</v>
+        <v>-2.206772101651062</v>
       </c>
       <c r="E22">
-        <v>0.9163686869038598</v>
+        <v>-0.9392619499397177</v>
       </c>
       <c r="F22">
-        <v>0.2875879704670562</v>
+        <v>0.3846633228298979</v>
       </c>
       <c r="G22">
-        <v>588.4442503140202</v>
+        <v>9345.637310835236</v>
       </c>
       <c r="H22">
-        <v>341.3962534254014</v>
+        <v>14387.28029501148</v>
       </c>
       <c r="I22">
-        <v>2.83148586273514</v>
+        <v>0.4022622883116602</v>
       </c>
       <c r="J22">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="23" spans="2:10">
       <c r="B23">
-        <v>664.230667237487</v>
+        <v>10214.68409804442</v>
       </c>
       <c r="C23">
-        <v>831.1387184744763</v>
+        <v>14651.75237421174</v>
       </c>
       <c r="D23">
-        <v>-1.283719912106579</v>
+        <v>-2.211377971530091</v>
       </c>
       <c r="E23">
-        <v>0.799926677536576</v>
+        <v>-0.9979659797299023</v>
       </c>
       <c r="F23">
-        <v>0.5582871095089948</v>
+        <v>-0.1765243902037824</v>
       </c>
       <c r="G23">
-        <v>519.0056168402446</v>
+        <v>10019.28423279045</v>
       </c>
       <c r="H23">
-        <v>363.6475342260047</v>
+        <v>14673.89177025212</v>
       </c>
       <c r="I23">
-        <v>2.507412251624028</v>
+        <v>-0.1502526456506039</v>
       </c>
       <c r="J23">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="24" spans="2:10">
       <c r="B24">
-        <v>734.8926224100736</v>
+        <v>12119.87794310656</v>
       </c>
       <c r="C24">
-        <v>666.8180655828703</v>
+        <v>16673.56990520089</v>
       </c>
       <c r="D24">
-        <v>-1.296213803344148</v>
+        <v>-2.203032327045405</v>
       </c>
       <c r="E24">
-        <v>0.582864149744574</v>
+        <v>-0.7728285217137474</v>
       </c>
       <c r="F24">
-        <v>0.8310783142500074</v>
+        <v>-0.6398687355256982</v>
       </c>
       <c r="G24">
-        <v>460.2670255577144</v>
+        <v>10743.11960340899</v>
       </c>
       <c r="H24">
-        <v>406.8519461548404</v>
+        <v>14564.3076954927</v>
       </c>
       <c r="I24">
-        <v>2.183338640512917</v>
+        <v>-0.7027675796128681</v>
       </c>
       <c r="J24">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="25" spans="2:10">
       <c r="B25">
-        <v>558.2214763444102</v>
+        <v>14879.47085460234</v>
       </c>
       <c r="C25">
-        <v>596.5403944197487</v>
+        <v>11835.69621361389</v>
       </c>
       <c r="D25">
-        <v>-1.298627528390808</v>
+        <v>-2.201786362779677</v>
       </c>
       <c r="E25">
-        <v>0.2432615560540629</v>
+        <v>-0.3044115642193247</v>
       </c>
       <c r="F25">
-        <v>0.9213373509602782</v>
+        <v>-0.973724393654949</v>
       </c>
       <c r="G25">
-        <v>418.3436191782787</v>
+        <v>11301.74058948673</v>
       </c>
       <c r="H25">
-        <v>466.5115749964394</v>
+        <v>14091.13869068271</v>
       </c>
       <c r="I25">
-        <v>1.859265029401806</v>
+        <v>-1.255282513575132</v>
       </c>
       <c r="J25">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="26" spans="2:10">
       <c r="B26">
-        <v>479.1221312414407</v>
+        <v>13175.63371715203</v>
       </c>
       <c r="C26">
-        <v>630.2854818675587</v>
+        <v>11708.50804349808</v>
       </c>
       <c r="D26">
-        <v>-1.293725680990952</v>
+        <v>-2.208715055586869</v>
       </c>
       <c r="E26">
-        <v>-0.03498464346921968</v>
+        <v>0.2286503661496674</v>
       </c>
       <c r="F26">
-        <v>0.9912922586317215</v>
+        <v>-1.007426412565503</v>
       </c>
       <c r="G26">
-        <v>397.5999493089715</v>
+        <v>11528.90974536585</v>
       </c>
       <c r="H26">
-        <v>536.4153908888916</v>
+        <v>13395.19294005518</v>
       </c>
       <c r="I26">
-        <v>1.535191418290695</v>
+        <v>4.47538785964219</v>
       </c>
       <c r="J26">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="27" spans="2:10">
       <c r="B27">
-        <v>438.2792594670786</v>
+        <v>16019.38577799362</v>
       </c>
       <c r="C27">
-        <v>675.9588771059603</v>
+        <v>10408.89991174177</v>
       </c>
       <c r="D27">
-        <v>-1.287759336256288</v>
+        <v>-2.215331251247904</v>
       </c>
       <c r="E27">
-        <v>-0.334750135825872</v>
+        <v>0.7177594926430722</v>
       </c>
       <c r="F27">
-        <v>0.9309977371772404</v>
+        <v>-0.7341414905404684</v>
       </c>
       <c r="G27">
-        <v>400.1955927943949</v>
+        <v>11357.02484852558</v>
       </c>
       <c r="H27">
-        <v>609.2858646822548</v>
+        <v>12683.57373328968</v>
       </c>
       <c r="I27">
-        <v>1.211117807179584</v>
+        <v>3.922872925679926</v>
       </c>
       <c r="J27">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="28" spans="2:10">
       <c r="B28">
-        <v>404.5645415086576</v>
+        <v>11546.04062389595</v>
       </c>
       <c r="C28">
-        <v>711.0457133043927</v>
+        <v>7812.192030284605</v>
       </c>
       <c r="D28">
-        <v>-1.29078684676209</v>
+        <v>-2.205303927659186</v>
       </c>
       <c r="E28">
-        <v>-0.6171430671528404</v>
+        <v>0.9996903218529493</v>
       </c>
       <c r="F28">
-        <v>0.7700760931586108</v>
+        <v>-0.2227456839448568</v>
       </c>
       <c r="G28">
-        <v>425.8603230255025</v>
+        <v>10837.23633353608</v>
       </c>
       <c r="H28">
-        <v>677.536615140672</v>
+        <v>12168.04855166965</v>
       </c>
       <c r="I28">
-        <v>0.8870441960684725</v>
+        <v>3.370357991717661</v>
       </c>
       <c r="J28">
-        <v>-1.296294444444445</v>
+        <v>-2.210059735849057</v>
       </c>
     </row>
     <row r="29" spans="2:10">
       <c r="B29">
-        <v>498.6019692994466</v>
+        <v>10400.16619993276</v>
       </c>
       <c r="C29">
-        <v>873.2890032823944</v>
+        <v>8153.561431998567</v>
       </c>
       <c r="D29">
-        <v>-1.110510954275826</v>
+        <v>-1.894378331843679</v>
       </c>
       <c r="E29">
-        <v>-0.8240912975697186</v>
+        <v>0.9716925050954291</v>
       </c>
       <c r="F29">
-        <v>0.5641939867681736</v>
+        <v>0.2280517165626813</v>
       </c>
       <c r="G29">
-        <v>465.3419571155871</v>
+        <v>10226.08451073721</v>
       </c>
       <c r="H29">
-        <v>725.9871112121949</v>
+        <v>12025.74711285187</v>
       </c>
       <c r="I29">
-        <v>0.6092664182906947</v>
+        <v>2.896773086057284</v>
       </c>
       <c r="J29">
-        <v>-1.111111111111111</v>
+        <v>-1.894339622641509</v>
       </c>
     </row>
     <row r="30" spans="2:10">
       <c r="B30">
-        <v>533.5231155994322</v>
+        <v>12214.27670933217</v>
       </c>
       <c r="C30">
-        <v>811.8168792398859</v>
+        <v>9891.89704557557</v>
       </c>
       <c r="D30">
-        <v>-0.9279793691907398</v>
+        <v>-1.564149475282272</v>
       </c>
       <c r="E30">
-        <v>-0.914624911381693</v>
+        <v>0.768956139942681</v>
       </c>
       <c r="F30">
-        <v>0.371913781389498</v>
+        <v>0.6235285780681116</v>
       </c>
       <c r="G30">
-        <v>508.0538172368165</v>
+        <v>9718.760860274238</v>
       </c>
       <c r="H30">
-        <v>755.7926215409444</v>
+        <v>12152.49227136011</v>
       </c>
       <c r="I30">
-        <v>0.3777844738462503</v>
+        <v>2.502118208698793</v>
       </c>
       <c r="J30">
-        <v>-0.9259277777777777</v>
+        <v>-1.578619509433962</v>
       </c>
     </row>
     <row r="31" spans="2:10">
       <c r="B31">
-        <v>473.788934562177</v>
+        <v>9253.574583402384</v>
       </c>
       <c r="C31">
-        <v>775.6088633751937</v>
+        <v>12847.80632049342</v>
       </c>
       <c r="D31">
-        <v>-0.7417961563941853</v>
+        <v>-1.262082659023918</v>
       </c>
       <c r="E31">
-        <v>-0.9688862742672824</v>
+        <v>0.5598839051597196</v>
       </c>
       <c r="F31">
-        <v>0.1715927223970301</v>
+        <v>0.801014280915827</v>
       </c>
       <c r="G31">
-        <v>546.7823424221045</v>
+        <v>9383.08604900472</v>
       </c>
       <c r="H31">
-        <v>771.1618825575048</v>
+        <v>12402.14277478394</v>
       </c>
       <c r="I31">
-        <v>0.192599751624028</v>
+        <v>2.186395727566718</v>
       </c>
       <c r="J31">
-        <v>-0.7407388888888891</v>
+        <v>-1.262889924528302</v>
       </c>
     </row>
     <row r="32" spans="2:10">
       <c r="B32">
-        <v>419.8064515308188</v>
+        <v>8040.785203269118</v>
       </c>
       <c r="C32">
-        <v>792.9550892345586</v>
+        <v>11702.47063131019</v>
       </c>
       <c r="D32">
-        <v>-0.5517340189678657</v>
+        <v>-0.9414418686143401</v>
       </c>
       <c r="E32">
-        <v>-1.014214361385354</v>
+        <v>0.3430953822817515</v>
       </c>
       <c r="F32">
-        <v>0.0553680648682483</v>
+        <v>0.9013557152372766</v>
       </c>
       <c r="G32">
-        <v>577.4545277631388</v>
+        <v>9201.911741123988</v>
       </c>
       <c r="H32">
-        <v>777.1434832132862</v>
+        <v>12658.29689375129</v>
       </c>
       <c r="I32">
-        <v>0.05371086273513914</v>
+        <v>1.949603274736529</v>
       </c>
       <c r="J32">
-        <v>-0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="33" spans="2:10">
       <c r="B33">
-        <v>385.708154072413</v>
+        <v>7322.441763795244</v>
       </c>
       <c r="C33">
-        <v>758.2241541587306</v>
+        <v>11525.80499767287</v>
       </c>
       <c r="D33">
-        <v>-0.2851146240553013</v>
+        <v>-0.4708702983648475</v>
       </c>
       <c r="E33">
-        <v>-0.9989203024504222</v>
+        <v>0.2661294567518005</v>
       </c>
       <c r="F33">
-        <v>-0.01941841185190127</v>
+        <v>1.004290891319057</v>
       </c>
       <c r="G33">
-        <v>593.0569952372855</v>
+        <v>9143.897442767195</v>
       </c>
       <c r="H33">
-        <v>777.9823119909247</v>
+        <v>12804.05047624986</v>
       </c>
       <c r="I33">
-        <v>-0.01573358170930531</v>
+        <v>1.831207048321434</v>
       </c>
       <c r="J33">
-        <v>-0.2777777777777778</v>
+        <v>-0.4735849056603774</v>
       </c>
     </row>
     <row r="34" spans="2:10">
       <c r="B34">
-        <v>384.376552374169</v>
+        <v>7833.29982502242</v>
       </c>
       <c r="C34">
-        <v>741.182630025904</v>
+        <v>11200.89402795379</v>
       </c>
       <c r="D34">
-        <v>-0.002637232004822904</v>
+        <v>0.003778393924783498</v>
       </c>
       <c r="E34">
-        <v>-1.004598841479939</v>
+        <v>0.2707139760901867</v>
       </c>
       <c r="F34">
-        <v>0.006780332037412139</v>
+        <v>0.9576657893617267</v>
       </c>
       <c r="G34">
-        <v>593.0569952372855</v>
+        <v>9143.897442767195</v>
       </c>
       <c r="H34">
-        <v>777.9823119909247</v>
+        <v>12804.05047624986</v>
       </c>
       <c r="I34">
-        <v>-0.01573358170930531</v>
+        <v>1.831207048321434</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -1366,231 +1366,231 @@
     </row>
     <row r="35" spans="2:10">
       <c r="B35">
-        <v>386.7039767919792</v>
+        <v>6944.485152666432</v>
       </c>
       <c r="C35">
-        <v>783.3789808369863</v>
+        <v>10941.34689149131</v>
       </c>
       <c r="D35">
-        <v>-0.2757443916363158</v>
+        <v>-0.4833214438106337</v>
       </c>
       <c r="E35">
-        <v>-1.004631389304145</v>
+        <v>0.1393728892463568</v>
       </c>
       <c r="F35">
-        <v>-0.068744889280695</v>
+        <v>0.9854627974387109</v>
       </c>
       <c r="G35">
-        <v>608.6800613272318</v>
+        <v>9103.505668211919</v>
       </c>
       <c r="H35">
-        <v>777.7364849192444</v>
+        <v>12955.63632708455</v>
       </c>
       <c r="I35">
-        <v>-0.08517802615374975</v>
+        <v>1.71281082190634</v>
       </c>
       <c r="J35">
-        <v>-0.2777777777777778</v>
+        <v>-0.4735849056603774</v>
       </c>
     </row>
     <row r="36" spans="2:10">
       <c r="B36">
-        <v>370.6495028582975</v>
+        <v>6213.742557588485</v>
       </c>
       <c r="C36">
-        <v>818.9307609497077</v>
+        <v>10830.91767554472</v>
       </c>
       <c r="D36">
-        <v>-0.5635194955861029</v>
+        <v>-0.9510555534651274</v>
       </c>
       <c r="E36">
-        <v>-0.977620724993711</v>
+        <v>-0.05438671590587662</v>
       </c>
       <c r="F36">
-        <v>-0.2038446912359701</v>
+        <v>0.9731281950384475</v>
       </c>
       <c r="G36">
-        <v>639.8167658492629</v>
+        <v>9059.098241369973</v>
       </c>
       <c r="H36">
-        <v>775.0778891418219</v>
+        <v>13266.2277676319</v>
       </c>
       <c r="I36">
-        <v>-0.2240669150426386</v>
+        <v>1.476018369076151</v>
       </c>
       <c r="J36">
-        <v>-0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="37" spans="2:10">
       <c r="B37">
-        <v>367.8807112981725</v>
+        <v>6892.081872746374</v>
       </c>
       <c r="C37">
-        <v>778.6971180552544</v>
+        <v>11733.46601932925</v>
       </c>
       <c r="D37">
-        <v>-0.5601447366590019</v>
+        <v>-0.9440576371063337</v>
       </c>
       <c r="E37">
-        <v>-0.906658862846353</v>
+        <v>-0.3122523303755702</v>
       </c>
       <c r="F37">
-        <v>-0.3378199594566358</v>
+        <v>0.9708370857603256</v>
       </c>
       <c r="G37">
-        <v>670.285573970454</v>
+        <v>9088.790325660641</v>
       </c>
       <c r="H37">
-        <v>768.1342422848717</v>
+        <v>13578.56963583159</v>
       </c>
       <c r="I37">
-        <v>-0.3629558039315275</v>
+        <v>1.239225916245962</v>
       </c>
       <c r="J37">
-        <v>-0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="38" spans="2:10">
       <c r="B38">
-        <v>365.1674587999216</v>
+        <v>7183.057633409823</v>
       </c>
       <c r="C38">
-        <v>918.5242023259175</v>
+        <v>13017.09442034196</v>
       </c>
       <c r="D38">
-        <v>-0.5569431009578467</v>
+        <v>-0.9467004316215268</v>
       </c>
       <c r="E38">
-        <v>-0.8787235263206346</v>
+        <v>-0.5151321328194538</v>
       </c>
       <c r="F38">
-        <v>-0.4899922560612056</v>
+        <v>0.8834303212014551</v>
       </c>
       <c r="G38">
-        <v>699.4996828227213</v>
+        <v>9190.924830753429</v>
       </c>
       <c r="H38">
-        <v>757.0392729758615</v>
+        <v>13875.23039388606</v>
       </c>
       <c r="I38">
-        <v>-0.5018446928204164</v>
+        <v>1.002433463415774</v>
       </c>
       <c r="J38">
-        <v>-0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="39" spans="2:10">
       <c r="B39">
-        <v>304.7367903738112</v>
+        <v>8436.005535597114</v>
       </c>
       <c r="C39">
-        <v>899.7462998343635</v>
+        <v>15851.03232495668</v>
       </c>
       <c r="D39">
-        <v>-0.5434248056429063</v>
+        <v>-0.9536940578640972</v>
       </c>
       <c r="E39">
-        <v>-0.7904716659025294</v>
+        <v>-0.7036242681875281</v>
       </c>
       <c r="F39">
-        <v>-0.6180330200274182</v>
+        <v>0.6848713735134579</v>
       </c>
       <c r="G39">
-        <v>726.8964539597283</v>
+        <v>9359.801715548427</v>
       </c>
       <c r="H39">
-        <v>742.0066607189564</v>
+        <v>14139.65365360793</v>
       </c>
       <c r="I39">
-        <v>-0.6407335817093054</v>
+        <v>0.765641010585585</v>
       </c>
       <c r="J39">
-        <v>-0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="40" spans="2:10">
       <c r="B40">
-        <v>358.3098541196723</v>
+        <v>11331.45294679653</v>
       </c>
       <c r="C40">
-        <v>1030.393556359459</v>
+        <v>16150.53432266856</v>
       </c>
       <c r="D40">
-        <v>-0.5635144591903841</v>
+        <v>-0.9511211719049724</v>
       </c>
       <c r="E40">
-        <v>-0.7410948567253683</v>
+        <v>-0.8131465775244947</v>
       </c>
       <c r="F40">
-        <v>-0.7229636275169828</v>
+        <v>0.4737763028387794</v>
       </c>
       <c r="G40">
-        <v>751.9482492862962</v>
+        <v>9585.996102691188</v>
       </c>
       <c r="H40">
-        <v>723.3259206127467</v>
+        <v>14357.08217456392</v>
       </c>
       <c r="I40">
-        <v>-0.7796224705981942</v>
+        <v>0.5288485577553963</v>
       </c>
       <c r="J40">
-        <v>-0.5555555555555556</v>
+        <v>-0.9471698113207547</v>
       </c>
     </row>
     <row r="41" spans="2:10">
       <c r="B41">
-        <v>367.7981304507221</v>
+        <v>11274.35348026756</v>
       </c>
       <c r="C41">
-        <v>978.4661150649981</v>
+        <v>15995.3989328209</v>
       </c>
       <c r="D41">
-        <v>-0.2790227130986581</v>
+        <v>-0.4731144885847515</v>
       </c>
       <c r="E41">
-        <v>-0.6628343739876772</v>
+        <v>-0.9045290846427498</v>
       </c>
       <c r="F41">
-        <v>-0.7687202188069114</v>
+        <v>0.391211184551831</v>
       </c>
       <c r="G41">
-        <v>763.0604210988229</v>
+        <v>9721.440187883638</v>
       </c>
       <c r="H41">
-        <v>712.3413740764126</v>
+        <v>14436.23181392747</v>
       </c>
       <c r="I41">
-        <v>-0.8490669150426386</v>
+        <v>0.410452331340302</v>
       </c>
       <c r="J41">
-        <v>-0.2777777777777778</v>
+        <v>-0.4735849056603774</v>
       </c>
     </row>
     <row r="42" spans="2:10">
       <c r="B42">
-        <v>326.1883036868985</v>
+        <v>11115.50150348555</v>
       </c>
       <c r="C42">
-        <v>1029.948555270321</v>
+        <v>15529.43604637226</v>
       </c>
       <c r="D42">
-        <v>-0.0005289211890148064</v>
+        <v>0.0004993819379800277</v>
       </c>
       <c r="E42">
-        <v>-0.6651958819974472</v>
+        <v>-0.8958287156592647</v>
       </c>
       <c r="F42">
-        <v>-0.7309032591681323</v>
+        <v>0.3922059099060185</v>
       </c>
       <c r="G42">
-        <v>763.0604210988229</v>
+        <v>9721.440187883638</v>
       </c>
       <c r="H42">
-        <v>712.3413740764126</v>
+        <v>14436.23181392747</v>
       </c>
       <c r="I42">
-        <v>-0.8490669150426386</v>
+        <v>0.410452331340302</v>
       </c>
       <c r="J42">
         <v>0</v>
